--- a/seam_carving/1119_3752/1119_3752.xlsx
+++ b/seam_carving/1119_3752/1119_3752.xlsx
@@ -477,29 +477,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>228</v>
+        <v>821</v>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>737</v>
+        <v>898</v>
       </c>
       <c r="D2" t="n">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>好 佳 小 吃 點 單</t>
+          <t>外帶</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Yummy Food Menu</t>
+          <t>Takeout</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>68.2</v>
+        <v>44</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -509,29 +509,29 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>815</v>
+        <v>250</v>
       </c>
       <c r="B3" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C3" t="n">
-        <v>900</v>
+        <v>719</v>
       </c>
       <c r="D3" t="n">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>外帶</t>
+          <t>好 佳 小 吃 點 單</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Takeout</t>
+          <t>Yummy Food Menu</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>68.2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -541,16 +541,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="B4" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C4" t="n">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="D4" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -573,25 +573,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>119</v>
+        <v>979</v>
       </c>
       <c r="B5" t="n">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C5" t="n">
-        <v>248</v>
+        <v>1017</v>
       </c>
       <c r="D5" t="n">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>炒飯 &amp; 炒 麵 類</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fried rice &amp; noodles</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -605,29 +605,29 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>268</v>
+        <v>794</v>
       </c>
       <c r="B6" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C6" t="n">
-        <v>307</v>
+        <v>862</v>
       </c>
       <c r="D6" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>單價</t>
+          <t>乾 麵 類</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Unit price</t>
+          <t>Dried noodles</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>18.7</v>
+        <v>22</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -637,29 +637,29 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>315</v>
+        <v>926</v>
       </c>
       <c r="B7" t="n">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C7" t="n">
-        <v>355</v>
+        <v>968</v>
       </c>
       <c r="D7" t="n">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>炒飯</t>
+          <t>單價</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fried rice</t>
+          <t>Unit price</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>17.6</v>
+        <v>20.4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -669,29 +669,29 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>365</v>
+        <v>683</v>
       </c>
       <c r="B8" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C8" t="n">
-        <v>402</v>
+        <v>723</v>
       </c>
       <c r="D8" t="n">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>炒麵</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stir-fried noodles</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>13.2</v>
+        <v>17.6</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -701,29 +701,29 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>485</v>
+        <v>636</v>
       </c>
       <c r="B9" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C9" t="n">
-        <v>564</v>
+        <v>677</v>
       </c>
       <c r="D9" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>簡 餐 類</t>
+          <t>單價</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>simple meals</t>
+          <t>Unit price</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>18.7</v>
+        <v>20.9</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -733,29 +733,29 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>636</v>
+        <v>122</v>
       </c>
       <c r="B10" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C10" t="n">
-        <v>675</v>
+        <v>242</v>
       </c>
       <c r="D10" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>單價</t>
+          <t>炒飯 &amp; 炒 麵 類</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Unit price</t>
+          <t>Fried rice &amp; noodles</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>20.9</v>
+        <v>17.6</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -765,29 +765,29 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>682</v>
+        <v>490</v>
       </c>
       <c r="B11" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C11" t="n">
-        <v>725</v>
+        <v>553</v>
       </c>
       <c r="D11" t="n">
         <v>203</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>數量</t>
+          <t>簡 餐 類</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>simple meals</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>17.6</v>
+        <v>18.7</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -797,29 +797,29 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>786</v>
+        <v>269</v>
       </c>
       <c r="B12" t="n">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C12" t="n">
-        <v>872</v>
+        <v>306</v>
       </c>
       <c r="D12" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>乾 麵 類</t>
+          <t>單價</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dried noodles</t>
+          <t>Unit price</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>22</v>
+        <v>18.7</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -829,29 +829,29 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>928</v>
+        <v>365</v>
       </c>
       <c r="B13" t="n">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C13" t="n">
-        <v>969</v>
+        <v>402</v>
       </c>
       <c r="D13" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>單價</t>
+          <t>炒麵</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Unit price</t>
+          <t>Stir-fried noodles</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>20.4</v>
+        <v>13.2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -861,25 +861,25 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>976</v>
+        <v>316</v>
       </c>
       <c r="B14" t="n">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="C14" t="n">
-        <v>1025</v>
+        <v>355</v>
       </c>
       <c r="D14" t="n">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>數量</t>
+          <t>炒飯</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Fried rice</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -893,25 +893,25 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>116</v>
+        <v>415</v>
       </c>
       <c r="B15" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C15" t="n">
-        <v>217</v>
+        <v>518</v>
       </c>
       <c r="D15" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>咖哩雞排</t>
+          <t>滷雞腿套餐</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chicken Cutlet Curry</t>
+          <t>Braised Chicken Legs Set Menu</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -925,29 +925,29 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B16" t="n">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="C16" t="n">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D16" t="n">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>泡菜雞排</t>
+          <t>咖哩雞排</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kimchi Chicken Cutlet </t>
+          <t>Chicken Cutlet Curry</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -957,61 +957,61 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>55</v>
+        <v>741</v>
       </c>
       <c r="B17" t="n">
-        <v>407</v>
+        <v>212</v>
       </c>
       <c r="C17" t="n">
-        <v>107</v>
+        <v>871</v>
       </c>
       <c r="D17" t="n">
-        <v>991</v>
+        <v>236</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>加飯或加麵 , 需加收 5元</t>
+          <t>招牌麻辣乾麵</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>If you add rice or noodles, you have to pay extra 5 yuan.</t>
+          <t>The signature spicy dried noodles</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>36.3</v>
+        <v>24.2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>left</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>119</v>
+        <v>561</v>
       </c>
       <c r="B18" t="n">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="C18" t="n">
-        <v>214</v>
+        <v>604</v>
       </c>
       <c r="D18" t="n">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>麻油雞絲</t>
+          <t>套餐</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spicy chicken with sesame oil.</t>
+          <t>Set menu</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1021,29 +1021,29 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B19" t="n">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="C19" t="n">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="D19" t="n">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>酸辣</t>
+          <t>泡菜雞排</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hot and sour</t>
+          <t xml:space="preserve">Kimchi Chicken Cutlet </t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1053,29 +1053,29 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>196</v>
+        <v>740</v>
       </c>
       <c r="B20" t="n">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="C20" t="n">
-        <v>224</v>
+        <v>869</v>
       </c>
       <c r="D20" t="n">
-        <v>344</v>
+        <v>271</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>羊</t>
+          <t>招牌泡打乾麵</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lamb</t>
+          <t>The signature bubble dry noodles</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>23.1</v>
+        <v>23.7</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1085,25 +1085,25 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>116</v>
+        <v>415</v>
       </c>
       <c r="B21" t="n">
-        <v>347</v>
+        <v>253</v>
       </c>
       <c r="C21" t="n">
-        <v>166</v>
+        <v>453</v>
       </c>
       <c r="D21" t="n">
-        <v>380</v>
+        <v>273</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>沙茶</t>
+          <t>香酥</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Shacha sauce</t>
+          <t>Crispy</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1117,29 +1117,29 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>198</v>
+        <v>457</v>
       </c>
       <c r="B22" t="n">
-        <v>351</v>
+        <v>253</v>
       </c>
       <c r="C22" t="n">
-        <v>227</v>
+        <v>501</v>
       </c>
       <c r="D22" t="n">
-        <v>379</v>
+        <v>272</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>羊</t>
+          <t>豬排</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lamb</t>
+          <t>Pork cutlet</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1149,29 +1149,29 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>118</v>
+        <v>512</v>
       </c>
       <c r="B23" t="n">
-        <v>382</v>
+        <v>253</v>
       </c>
       <c r="C23" t="n">
-        <v>166</v>
+        <v>556</v>
       </c>
       <c r="D23" t="n">
-        <v>413</v>
+        <v>272</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>泡菜</t>
+          <t>鸡排</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kimchi</t>
+          <t>Chicken chops</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1181,25 +1181,25 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="B24" t="n">
-        <v>384</v>
+        <v>287</v>
       </c>
       <c r="C24" t="n">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D24" t="n">
-        <v>410</v>
+        <v>308</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>羊</t>
+          <t>麻油雞絲</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lamb</t>
+          <t>Spicy chicken with sesame oil.</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1213,29 +1213,29 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>120</v>
+        <v>740</v>
       </c>
       <c r="B25" t="n">
-        <v>416</v>
+        <v>285</v>
       </c>
       <c r="C25" t="n">
-        <v>213</v>
+        <v>868</v>
       </c>
       <c r="D25" t="n">
-        <v>448</v>
+        <v>307</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>酸辣雞排</t>
+          <t>麻辣炸醬乾麵</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hot and sour chicken Cutlet</t>
+          <t>Spicy Jjajang dried noodles</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>23.1</v>
+        <v>23.7</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1245,29 +1245,29 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>122</v>
+        <v>415</v>
       </c>
       <c r="B26" t="n">
-        <v>451</v>
+        <v>288</v>
       </c>
       <c r="C26" t="n">
-        <v>214</v>
+        <v>517</v>
       </c>
       <c r="D26" t="n">
-        <v>481</v>
+        <v>308</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>香酥雞排</t>
+          <t>泡打飯套餐</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Crispy chicken Cutlet</t>
+          <t>Kimchi rice set</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1277,29 +1277,29 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B27" t="n">
-        <v>483</v>
+        <v>321</v>
       </c>
       <c r="C27" t="n">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="D27" t="n">
-        <v>515</v>
+        <v>341</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>鹹蛋超人</t>
+          <t>酸辣</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ultraman (Fried Egg)</t>
+          <t>Hot and sour</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1309,25 +1309,25 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>116</v>
+        <v>739</v>
       </c>
       <c r="B28" t="n">
-        <v>518</v>
+        <v>321</v>
       </c>
       <c r="C28" t="n">
-        <v>217</v>
+        <v>822</v>
       </c>
       <c r="D28" t="n">
-        <v>548</v>
+        <v>342</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>鮪魚洋蔥</t>
+          <t>炸醬乾麵</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tuna and Onion</t>
+          <t>Dried noodles with black bean paste</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1341,25 +1341,25 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="B29" t="n">
-        <v>553</v>
+        <v>321</v>
       </c>
       <c r="C29" t="n">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="D29" t="n">
-        <v>581</v>
+        <v>341</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>三色蛋</t>
+          <t>羊</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tricolor egg</t>
+          <t>Lamb</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1373,29 +1373,29 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="B30" t="n">
-        <v>587</v>
+        <v>321</v>
       </c>
       <c r="C30" t="n">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="D30" t="n">
-        <v>616</v>
+        <v>341</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>什錦海鮮</t>
+          <t>牛</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Assorted seafood</t>
+          <t>Beef</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>23.1</v>
+        <v>17.6</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1405,29 +1405,29 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>118</v>
+        <v>415</v>
       </c>
       <c r="B31" t="n">
-        <v>620</v>
+        <v>322</v>
       </c>
       <c r="C31" t="n">
-        <v>191</v>
+        <v>517</v>
       </c>
       <c r="D31" t="n">
-        <v>648</v>
+        <v>342</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>泡菜菇</t>
+          <t>雞肉飯套餐</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kimchi mushroom</t>
+          <t>Chicken rice set</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1437,29 +1437,29 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B32" t="n">
-        <v>653</v>
+        <v>355</v>
       </c>
       <c r="C32" t="n">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="D32" t="n">
-        <v>682</v>
+        <v>375</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>香辣蝦仁</t>
+          <t>沙茶</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spicy shrimp</t>
+          <t>Shacha sauce</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1469,61 +1469,61 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="B33" t="n">
-        <v>686</v>
+        <v>349</v>
       </c>
       <c r="C33" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D33" t="n">
-        <v>715</v>
+        <v>379</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>泡菜</t>
+          <t>茶牛</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kimchi</t>
+          <t>Tea beef</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>23.1</v>
+        <v>6.6</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>top</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>198</v>
+        <v>827</v>
       </c>
       <c r="B34" t="n">
-        <v>688</v>
+        <v>357</v>
       </c>
       <c r="C34" t="n">
-        <v>226</v>
+        <v>859</v>
       </c>
       <c r="D34" t="n">
-        <v>714</v>
+        <v>375</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>雞</t>
+          <t>黃</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Chicken</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>23.1</v>
+        <v>16.5</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1533,29 +1533,29 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>119</v>
+        <v>859</v>
       </c>
       <c r="B35" t="n">
-        <v>719</v>
+        <v>357</v>
       </c>
       <c r="C35" t="n">
-        <v>168</v>
+        <v>886</v>
       </c>
       <c r="D35" t="n">
-        <v>743</v>
+        <v>376</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>蝦仁</t>
+          <t>白</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Shrimps</t>
+          <t>White</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>19.2</v>
+        <v>22</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1565,29 +1565,29 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="B36" t="n">
-        <v>754</v>
+        <v>355</v>
       </c>
       <c r="C36" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D36" t="n">
-        <v>780</v>
+        <v>375</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>茄汁肉絲</t>
+          <t>羊</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tomato sauce shredded meat</t>
+          <t>Lamb</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1597,25 +1597,25 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>119</v>
+        <v>739</v>
       </c>
       <c r="B37" t="n">
-        <v>789</v>
+        <v>356</v>
       </c>
       <c r="C37" t="n">
-        <v>164</v>
+        <v>822</v>
       </c>
       <c r="D37" t="n">
-        <v>814</v>
+        <v>377</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>酸辣</t>
+          <t>肉燥乾麵</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hot and sour</t>
+          <t>Dried noodles with dried meat</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1629,29 +1629,29 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>196</v>
+        <v>415</v>
       </c>
       <c r="B38" t="n">
-        <v>786</v>
+        <v>356</v>
       </c>
       <c r="C38" t="n">
-        <v>227</v>
+        <v>517</v>
       </c>
       <c r="D38" t="n">
-        <v>814</v>
+        <v>377</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>雞</t>
+          <t>魯肉飯套餐</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Chicken.</t>
+          <t>Minced pork rice set</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1661,29 +1661,29 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="B39" t="n">
-        <v>818</v>
+        <v>390</v>
       </c>
       <c r="C39" t="n">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="D39" t="n">
-        <v>846</v>
+        <v>409</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>皮蛋火腿</t>
+          <t>牛</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>hams with egg</t>
+          <t xml:space="preserve">Beef </t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>22.6</v>
+        <v>20.9</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1693,29 +1693,29 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" t="n">
-        <v>852</v>
+        <v>389</v>
       </c>
       <c r="C40" t="n">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="D40" t="n">
-        <v>878</v>
+        <v>410</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>榨菜肉絲</t>
+          <t>泡菜</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Stir-fried Shredded-Pork With Pickled Mustard Tuber</t>
+          <t>Kimchi</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1725,29 +1725,29 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="B41" t="n">
-        <v>884</v>
+        <v>389</v>
       </c>
       <c r="C41" t="n">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="D41" t="n">
-        <v>913</v>
+        <v>409</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>培根蛋一家親</t>
+          <t>羊</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bacon and Eggs</t>
+          <t>Lamb</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>21.5</v>
+        <v>23.1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1757,29 +1757,29 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>118</v>
+        <v>415</v>
       </c>
       <c r="B42" t="n">
-        <v>915</v>
+        <v>391</v>
       </c>
       <c r="C42" t="n">
-        <v>167</v>
+        <v>495</v>
       </c>
       <c r="D42" t="n">
-        <v>946</v>
+        <v>411</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>香辣</t>
+          <t>今日特餐</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spicy</t>
+          <t>Today's special</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1789,29 +1789,29 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>200</v>
+        <v>737</v>
       </c>
       <c r="B43" t="n">
-        <v>914</v>
+        <v>391</v>
       </c>
       <c r="C43" t="n">
-        <v>229</v>
+        <v>820</v>
       </c>
       <c r="D43" t="n">
-        <v>942</v>
+        <v>411</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>雞</t>
+          <t>傻瓜乾麵</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Chicken</t>
+          <t>Fool's Dried noodles</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>20.9</v>
+        <v>22.6</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1821,33 +1821,33 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>945</v>
+        <v>412</v>
       </c>
       <c r="C44" t="n">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="D44" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>香腸</t>
+          <t>加飯或加麵 , 需加收 5元</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sausage</t>
+          <t>If you add rice or noodles, you have to pay extra 5 yuan.</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>22</v>
+        <v>36.3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>top</t>
         </is>
       </c>
     </row>
@@ -1856,22 +1856,22 @@
         <v>121</v>
       </c>
       <c r="B45" t="n">
-        <v>981</v>
+        <v>423</v>
       </c>
       <c r="C45" t="n">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="D45" t="n">
-        <v>1009</v>
+        <v>444</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>培根</t>
+          <t>酸辣雞排</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bacon</t>
+          <t>Hot and sour chicken Cutlet</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1885,29 +1885,29 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>120</v>
+        <v>848</v>
       </c>
       <c r="B46" t="n">
-        <v>1015</v>
+        <v>425</v>
       </c>
       <c r="C46" t="n">
-        <v>212</v>
+        <v>873</v>
       </c>
       <c r="D46" t="n">
-        <v>1042</v>
+        <v>446</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>宮保雞丁</t>
+          <t>大</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kung pao chicken </t>
+          <t>Large</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1917,29 +1917,29 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>118</v>
+        <v>737</v>
       </c>
       <c r="B47" t="n">
-        <v>1047</v>
+        <v>424</v>
       </c>
       <c r="C47" t="n">
-        <v>191</v>
+        <v>846</v>
       </c>
       <c r="D47" t="n">
-        <v>1076</v>
+        <v>446</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>三杯雞</t>
+          <t>乾麻油麵線</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sanbeiji (Three cup chicken)</t>
+          <t>Dried Vermicelli with Sesame Oil</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1949,29 +1949,29 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B48" t="n">
-        <v>1084</v>
+        <v>457</v>
       </c>
       <c r="C48" t="n">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="D48" t="n">
-        <v>1105</v>
+        <v>477</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>肉絲</t>
+          <t>香酥雞排</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Pork shreds</t>
+          <t>Crispy chicken Cutlet</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1981,29 +1981,29 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>120</v>
+        <v>499</v>
       </c>
       <c r="B49" t="n">
-        <v>1111</v>
+        <v>457</v>
       </c>
       <c r="C49" t="n">
-        <v>169</v>
+        <v>538</v>
       </c>
       <c r="D49" t="n">
-        <v>1138</v>
+        <v>474</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>雞肉</t>
+          <t>蓋飯</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Chicken</t>
+          <t>Rice with toppings</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>22.6</v>
+        <v>18.2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2013,29 +2013,29 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>121</v>
+        <v>686</v>
       </c>
       <c r="B50" t="n">
-        <v>1145</v>
+        <v>461</v>
       </c>
       <c r="C50" t="n">
-        <v>170</v>
+        <v>693</v>
       </c>
       <c r="D50" t="n">
-        <v>1169</v>
+        <v>469</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>火腿</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ham</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>21.5</v>
+        <v>9.9</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2045,29 +2045,29 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>121</v>
+        <v>632</v>
       </c>
       <c r="B51" t="n">
-        <v>1175</v>
+        <v>458</v>
       </c>
       <c r="C51" t="n">
-        <v>167</v>
+        <v>670</v>
       </c>
       <c r="D51" t="n">
-        <v>1203</v>
+        <v>476</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>茄汁</t>
+          <t>單價</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tomato Sauce</t>
+          <t>Unit price</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>22</v>
+        <v>19.2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2077,29 +2077,29 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>118</v>
+        <v>736</v>
       </c>
       <c r="B52" t="n">
-        <v>1212</v>
+        <v>459</v>
       </c>
       <c r="C52" t="n">
-        <v>149</v>
+        <v>846</v>
       </c>
       <c r="D52" t="n">
-        <v>1236</v>
+        <v>478</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>蛋</t>
+          <t>乾麻油麵線</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Dried Vermicelli with Sesame Oil</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>20.9</v>
+        <v>22</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2109,29 +2109,29 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>192</v>
+        <v>845</v>
       </c>
       <c r="B53" t="n">
-        <v>1240</v>
+        <v>460</v>
       </c>
       <c r="C53" t="n">
-        <v>267</v>
+        <v>874</v>
       </c>
       <c r="D53" t="n">
-        <v>1269</v>
+        <v>478</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>素食類</t>
+          <t>小</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vegetarian food</t>
+          <t>Small</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>18.7</v>
+        <v>19.2</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2141,29 +2141,29 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>312</v>
+        <v>121</v>
       </c>
       <c r="B54" t="n">
-        <v>1241</v>
+        <v>491</v>
       </c>
       <c r="C54" t="n">
-        <v>352</v>
+        <v>208</v>
       </c>
       <c r="D54" t="n">
-        <v>1265</v>
+        <v>511</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>單價</t>
+          <t>鹹蛋超人</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Unit price</t>
+          <t>Ultraman (Fried Egg)</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2173,29 +2173,29 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111</v>
+        <v>412</v>
       </c>
       <c r="B55" t="n">
-        <v>1369</v>
+        <v>493</v>
       </c>
       <c r="C55" t="n">
-        <v>155</v>
+        <v>453</v>
       </c>
       <c r="D55" t="n">
-        <v>1395</v>
+        <v>512</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>素菜炒</t>
+          <t>沙茶</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vegetable stir-fry.</t>
+          <t>Shacha sauce</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>20.9</v>
+        <v>22</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2205,29 +2205,29 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>211</v>
+        <v>458</v>
       </c>
       <c r="B56" t="n">
-        <v>1367</v>
+        <v>492</v>
       </c>
       <c r="C56" t="n">
-        <v>239</v>
+        <v>501</v>
       </c>
       <c r="D56" t="n">
-        <v>1393</v>
+        <v>512</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>麵</t>
+          <t>牛肉</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Noodles</t>
+          <t>Beef</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>20.9</v>
+        <v>22.6</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2237,29 +2237,29 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112</v>
+        <v>557</v>
       </c>
       <c r="B57" t="n">
-        <v>1399</v>
+        <v>493</v>
       </c>
       <c r="C57" t="n">
-        <v>156</v>
+        <v>600</v>
       </c>
       <c r="D57" t="n">
-        <v>1423</v>
+        <v>512</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>茄汁炒</t>
+          <t>蓋飯</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>tomato sauce</t>
+          <t>Rice with toppings</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>19.2</v>
+        <v>22</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2269,29 +2269,29 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>213</v>
+        <v>509</v>
       </c>
       <c r="B58" t="n">
-        <v>1401</v>
+        <v>492</v>
       </c>
       <c r="C58" t="n">
-        <v>241</v>
+        <v>552</v>
       </c>
       <c r="D58" t="n">
-        <v>1427</v>
+        <v>513</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>麵</t>
+          <t>羊肉</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Noodles</t>
+          <t>Mutton</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>20.9</v>
+        <v>22.6</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2301,29 +2301,29 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>517</v>
+        <v>121</v>
       </c>
       <c r="B59" t="n">
-        <v>1490</v>
+        <v>524</v>
       </c>
       <c r="C59" t="n">
-        <v>986</v>
+        <v>209</v>
       </c>
       <c r="D59" t="n">
-        <v>1539</v>
+        <v>545</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>加飯或加麵 , 需加收 5元</t>
+          <t>鮪魚洋蔥</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>If you add rice or noodles, you have to pay extra 5 yuan</t>
+          <t>Tuna and Onion</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>34.1</v>
+        <v>23.1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2333,29 +2333,29 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>744</v>
+        <v>916</v>
       </c>
       <c r="B60" t="n">
-        <v>1542</v>
+        <v>527</v>
       </c>
       <c r="C60" t="n">
-        <v>990</v>
+        <v>953</v>
       </c>
       <c r="D60" t="n">
-        <v>1585</v>
+        <v>544</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>餐點可客製化</t>
+          <t>單價</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Meals can be customized</t>
+          <t>Unit price</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>35.8</v>
+        <v>19.2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2365,29 +2365,29 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>365</v>
+        <v>967</v>
       </c>
       <c r="B61" t="n">
-        <v>1587</v>
+        <v>527</v>
       </c>
       <c r="C61" t="n">
-        <v>611</v>
+        <v>1003</v>
       </c>
       <c r="D61" t="n">
-        <v>1647</v>
+        <v>541</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>外送專線</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Special delivery line</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>52.8</v>
+        <v>13.8</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2397,29 +2397,29 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>413</v>
+        <v>556</v>
       </c>
       <c r="B62" t="n">
-        <v>210</v>
+        <v>526</v>
       </c>
       <c r="C62" t="n">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="D62" t="n">
-        <v>246</v>
+        <v>547</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>滷雞腿套餐</t>
+          <t>蓋飯</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Braised Chicken Legs Set Menu</t>
+          <t>Rice with toppings</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2429,29 +2429,29 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B63" t="n">
-        <v>247</v>
+        <v>527</v>
       </c>
       <c r="C63" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D63" t="n">
-        <v>277</v>
+        <v>546</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>香酥</t>
+          <t>沙茶</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Crispy</t>
+          <t>Shacha sauce</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>22.6</v>
+        <v>21.5</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2461,29 +2461,29 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>515</v>
+        <v>763</v>
       </c>
       <c r="B64" t="n">
-        <v>247</v>
+        <v>527</v>
       </c>
       <c r="C64" t="n">
-        <v>557</v>
+        <v>876</v>
       </c>
       <c r="D64" t="n">
-        <v>280</v>
+        <v>545</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>鸡排</t>
+          <t>手工水餃類</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Chicken chops</t>
+          <t>Handmade dumplings</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>22</v>
+        <v>20.9</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2493,29 +2493,29 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>409</v>
+        <v>503</v>
       </c>
       <c r="B65" t="n">
-        <v>281</v>
+        <v>527</v>
       </c>
       <c r="C65" t="n">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="D65" t="n">
-        <v>313</v>
+        <v>547</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>泡打飯套餐</t>
+          <t>雞肉</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kimchi rice set</t>
+          <t>Chicken</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2525,29 +2525,29 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="B66" t="n">
-        <v>319</v>
+        <v>527</v>
       </c>
       <c r="C66" t="n">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="D66" t="n">
-        <v>346</v>
+        <v>547</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>雞肉飯套餐</t>
+          <t>猪肉</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Chicken rice set</t>
+          <t>Pork</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2557,25 +2557,25 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>410</v>
+        <v>121</v>
       </c>
       <c r="B67" t="n">
-        <v>352</v>
+        <v>558</v>
       </c>
       <c r="C67" t="n">
-        <v>525</v>
+        <v>186</v>
       </c>
       <c r="D67" t="n">
-        <v>380</v>
+        <v>581</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>魯肉飯套餐</t>
+          <t>三色蛋</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Minced pork rice set</t>
+          <t>Tricolor egg</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -2589,29 +2589,29 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>409</v>
+        <v>852</v>
       </c>
       <c r="B68" t="n">
-        <v>386</v>
+        <v>562</v>
       </c>
       <c r="C68" t="n">
-        <v>509</v>
+        <v>880</v>
       </c>
       <c r="D68" t="n">
-        <v>414</v>
+        <v>580</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>今日特餐</t>
+          <t>粒</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Today's special</t>
+          <t>pieces</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>22.6</v>
+        <v>14.3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2621,29 +2621,29 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>492</v>
+        <v>880</v>
       </c>
       <c r="B69" t="n">
-        <v>452</v>
+        <v>561</v>
       </c>
       <c r="C69" t="n">
-        <v>546</v>
+        <v>900</v>
       </c>
       <c r="D69" t="n">
-        <v>480</v>
+        <v>581</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>蓋飯</t>
+          <t>份</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Rice with toppings</t>
+          <t>1 portion</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>18.2</v>
+        <v>23.1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2653,29 +2653,29 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>632</v>
+        <v>413</v>
       </c>
       <c r="B70" t="n">
-        <v>454</v>
+        <v>561</v>
       </c>
       <c r="C70" t="n">
-        <v>673</v>
+        <v>453</v>
       </c>
       <c r="D70" t="n">
-        <v>481</v>
+        <v>580</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>單價</t>
+          <t>蠔油</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Unit price</t>
+          <t>Oyster Sauce</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>19.2</v>
+        <v>21.5</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2685,29 +2685,29 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>677</v>
+        <v>507</v>
       </c>
       <c r="B71" t="n">
-        <v>452</v>
+        <v>560</v>
       </c>
       <c r="C71" t="n">
-        <v>722</v>
+        <v>553</v>
       </c>
       <c r="D71" t="n">
-        <v>480</v>
+        <v>581</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>數量</t>
+          <t>羊肉</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Mutton</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>9.9</v>
+        <v>23.1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2717,29 +2717,29 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="B72" t="n">
-        <v>485</v>
+        <v>560</v>
       </c>
       <c r="C72" t="n">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="D72" t="n">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>沙茶</t>
+          <t>牛肉</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Shacha sauce</t>
+          <t>Beef</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2749,29 +2749,29 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>457</v>
+        <v>558</v>
       </c>
       <c r="B73" t="n">
-        <v>485</v>
+        <v>560</v>
       </c>
       <c r="C73" t="n">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="D73" t="n">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>牛肉</t>
+          <t>蓋飯</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Beef</t>
+          <t>Rice with toppings</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2781,29 +2781,29 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>475</v>
+        <v>738</v>
       </c>
       <c r="B74" t="n">
-        <v>721</v>
+        <v>581</v>
       </c>
       <c r="C74" t="n">
-        <v>549</v>
+        <v>799</v>
       </c>
       <c r="D74" t="n">
-        <v>747</v>
+        <v>602</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>湯麵類</t>
+          <t>高麗菜</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Soup noodles</t>
+          <t>Cabbage</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>19.8</v>
+        <v>22</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2813,29 +2813,29 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>626</v>
+        <v>121</v>
       </c>
       <c r="B75" t="n">
-        <v>724</v>
+        <v>592</v>
       </c>
       <c r="C75" t="n">
-        <v>666</v>
+        <v>209</v>
       </c>
       <c r="D75" t="n">
-        <v>749</v>
+        <v>612</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>單價</t>
+          <t>什錦海鮮</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Unit price</t>
+          <t>Assorted seafood</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>18.7</v>
+        <v>23.1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2845,29 +2845,29 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>675</v>
+        <v>412</v>
       </c>
       <c r="B76" t="n">
-        <v>722</v>
+        <v>594</v>
       </c>
       <c r="C76" t="n">
-        <v>714</v>
+        <v>452</v>
       </c>
       <c r="D76" t="n">
-        <v>751</v>
+        <v>613</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>數量</t>
+          <t>蠔油</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Oyster Sauce</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>13.2</v>
+        <v>21.5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -2877,29 +2877,29 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>408</v>
+        <v>879</v>
       </c>
       <c r="B77" t="n">
-        <v>754</v>
+        <v>594</v>
       </c>
       <c r="C77" t="n">
-        <v>516</v>
+        <v>899</v>
       </c>
       <c r="D77" t="n">
-        <v>783</v>
+        <v>614</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>什錦海鮮麵</t>
+          <t>份</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Okonomiyaki jjamppong</t>
+          <t>1 portion</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>20.9</v>
+        <v>23.1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -2909,29 +2909,29 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="B78" t="n">
-        <v>787</v>
+        <v>594</v>
       </c>
       <c r="C78" t="n">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="D78" t="n">
-        <v>815</v>
+        <v>614</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>蕃茄雞肉麵</t>
+          <t>猪肉</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tomato chicken noodles</t>
+          <t>Pork</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -2941,29 +2941,29 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>408</v>
+        <v>503</v>
       </c>
       <c r="B79" t="n">
-        <v>818</v>
+        <v>594</v>
       </c>
       <c r="C79" t="n">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="D79" t="n">
-        <v>851</v>
+        <v>614</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>榨菜肉絲湯麵</t>
+          <t>雞肉</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pickled pork shreds soup noodles</t>
+          <t>Chicken</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>20.9</v>
+        <v>22.6</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -2973,29 +2973,29 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>409</v>
+        <v>556</v>
       </c>
       <c r="B80" t="n">
-        <v>853</v>
+        <v>594</v>
       </c>
       <c r="C80" t="n">
-        <v>516</v>
+        <v>598</v>
       </c>
       <c r="D80" t="n">
-        <v>881</v>
+        <v>614</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>沙茶雞絲麵</t>
+          <t>蓋飯</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Shacha sauce chicken noodles</t>
+          <t>Rice with toppings</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>20.9</v>
+        <v>22.6</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3005,29 +3005,29 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>522</v>
+        <v>850</v>
       </c>
       <c r="B81" t="n">
-        <v>851</v>
+        <v>595</v>
       </c>
       <c r="C81" t="n">
-        <v>550</v>
+        <v>879</v>
       </c>
       <c r="D81" t="n">
-        <v>877</v>
+        <v>613</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>大</t>
+          <t>粒</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>pieces</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>20.9</v>
+        <v>15.4</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3037,25 +3037,25 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>407</v>
+        <v>121</v>
       </c>
       <c r="B82" t="n">
-        <v>884</v>
+        <v>625</v>
       </c>
       <c r="C82" t="n">
-        <v>514</v>
+        <v>186</v>
       </c>
       <c r="D82" t="n">
-        <v>913</v>
+        <v>645</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>沙茶雞絲麵</t>
+          <t>泡菜菇</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Shacha sauce chicken noodles</t>
+          <t>Kimchi mushroom</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3069,29 +3069,29 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>519</v>
+        <v>412</v>
       </c>
       <c r="B83" t="n">
-        <v>885</v>
+        <v>628</v>
       </c>
       <c r="C83" t="n">
-        <v>548</v>
+        <v>454</v>
       </c>
       <c r="D83" t="n">
-        <v>913</v>
+        <v>647</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>小</t>
+          <t>泡菜</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Kimchi</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>18.7</v>
+        <v>22</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3101,29 +3101,29 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>409</v>
+        <v>504</v>
       </c>
       <c r="B84" t="n">
-        <v>917</v>
+        <v>628</v>
       </c>
       <c r="C84" t="n">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="D84" t="n">
-        <v>948</v>
+        <v>648</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>韓式泡菜湯麵</t>
+          <t>羊肉</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Korean Kimchi noodle soup</t>
+          <t>Mutton</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>20.9</v>
+        <v>22</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3133,29 +3133,29 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>542</v>
+        <v>454</v>
       </c>
       <c r="B85" t="n">
-        <v>918</v>
+        <v>628</v>
       </c>
       <c r="C85" t="n">
-        <v>582</v>
+        <v>502</v>
       </c>
       <c r="D85" t="n">
-        <v>947</v>
+        <v>648</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>冬粉</t>
+          <t>牛肉</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vermicelli </t>
+          <t>Beef</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>20.4</v>
+        <v>23.1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3165,29 +3165,29 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>409</v>
+        <v>554</v>
       </c>
       <c r="B86" t="n">
-        <v>949</v>
+        <v>628</v>
       </c>
       <c r="C86" t="n">
-        <v>494</v>
+        <v>598</v>
       </c>
       <c r="D86" t="n">
-        <v>981</v>
+        <v>648</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>蔬菜湯麵</t>
+          <t>拌飯</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Vegetable soup noodles</t>
+          <t>Bibimbap</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>20.9</v>
+        <v>23.1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3197,29 +3197,29 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>409</v>
+        <v>851</v>
       </c>
       <c r="B87" t="n">
-        <v>983</v>
+        <v>628</v>
       </c>
       <c r="C87" t="n">
-        <v>494</v>
+        <v>879</v>
       </c>
       <c r="D87" t="n">
-        <v>1013</v>
+        <v>646</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>肉燥湯麵</t>
+          <t>粒</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Dry meat soup noodles</t>
+          <t>pieces</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>20.9</v>
+        <v>16.5</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3229,29 +3229,29 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>498</v>
+        <v>879</v>
       </c>
       <c r="B88" t="n">
-        <v>982</v>
+        <v>627</v>
       </c>
       <c r="C88" t="n">
-        <v>529</v>
+        <v>899</v>
       </c>
       <c r="D88" t="n">
-        <v>1011</v>
+        <v>647</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>黃</t>
+          <t>份</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>1 portion</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>15.4</v>
+        <v>14.3</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3261,29 +3261,29 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>526</v>
+        <v>737</v>
       </c>
       <c r="B89" t="n">
-        <v>981</v>
+        <v>629</v>
       </c>
       <c r="C89" t="n">
-        <v>555</v>
+        <v>819</v>
       </c>
       <c r="D89" t="n">
-        <v>1009</v>
+        <v>654</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>白</t>
+          <t>黃金煎餃</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Golden fried dumplings</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>16</v>
+        <v>23.1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3293,25 +3293,25 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>408</v>
+        <v>737</v>
       </c>
       <c r="B90" t="n">
-        <v>1015</v>
+        <v>649</v>
       </c>
       <c r="C90" t="n">
-        <v>513</v>
+        <v>807</v>
       </c>
       <c r="D90" t="n">
-        <v>1044</v>
+        <v>673</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>湯麻油麵線</t>
+          <t>不加蛋</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Soup and sesame oil noodles</t>
+          <t>Without an egg</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -3325,25 +3325,25 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>516</v>
+        <v>122</v>
       </c>
       <c r="B91" t="n">
-        <v>1016</v>
+        <v>658</v>
       </c>
       <c r="C91" t="n">
-        <v>544</v>
+        <v>209</v>
       </c>
       <c r="D91" t="n">
-        <v>1042</v>
+        <v>678</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>大</t>
+          <t>香辣蝦仁</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Spicy shrimp</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -3357,29 +3357,29 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B92" t="n">
-        <v>1048</v>
+        <v>661</v>
       </c>
       <c r="C92" t="n">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="D92" t="n">
-        <v>1076</v>
+        <v>680</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>湯麻油麵線</t>
+          <t>泡菜</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Soup and sesame oil noodles</t>
+          <t>Kimchi</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>19.8</v>
+        <v>22</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3389,29 +3389,29 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="B93" t="n">
-        <v>1049</v>
+        <v>661</v>
       </c>
       <c r="C93" t="n">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="D93" t="n">
-        <v>1075</v>
+        <v>681</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>小</t>
+          <t>拌飯</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Bibimbap</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>18.7</v>
+        <v>22</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3421,29 +3421,29 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>473</v>
+        <v>876</v>
       </c>
       <c r="B94" t="n">
-        <v>1111</v>
+        <v>660</v>
       </c>
       <c r="C94" t="n">
-        <v>549</v>
+        <v>897</v>
       </c>
       <c r="D94" t="n">
-        <v>1141</v>
+        <v>680</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>火鍋類</t>
+          <t>份</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Hot pot dishes</t>
+          <t>1 portion</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>18.7</v>
+        <v>23.1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3453,29 +3453,29 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>620</v>
+        <v>453</v>
       </c>
       <c r="B95" t="n">
-        <v>1114</v>
+        <v>662</v>
       </c>
       <c r="C95" t="n">
-        <v>663</v>
+        <v>501</v>
       </c>
       <c r="D95" t="n">
-        <v>1140</v>
+        <v>681</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>單價</t>
+          <t>猪肉</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Unit price</t>
+          <t>Pork</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>19.2</v>
+        <v>22</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3485,29 +3485,29 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>669</v>
+        <v>504</v>
       </c>
       <c r="B96" t="n">
-        <v>1115</v>
+        <v>661</v>
       </c>
       <c r="C96" t="n">
-        <v>707</v>
+        <v>552</v>
       </c>
       <c r="D96" t="n">
-        <v>1141</v>
+        <v>681</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>數量</t>
+          <t>雞肉</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Chicken</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>16</v>
+        <v>22.6</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3517,29 +3517,29 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>407</v>
+        <v>849</v>
       </c>
       <c r="B97" t="n">
-        <v>1144</v>
+        <v>661</v>
       </c>
       <c r="C97" t="n">
-        <v>517</v>
+        <v>876</v>
       </c>
       <c r="D97" t="n">
-        <v>1172</v>
+        <v>679</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>韓式泡菜鍋</t>
+          <t>粒</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Kimchi pot</t>
+          <t>pieces</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>19.8</v>
+        <v>15.4</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3549,29 +3549,29 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>408</v>
+        <v>167</v>
       </c>
       <c r="B98" t="n">
-        <v>1176</v>
+        <v>693</v>
       </c>
       <c r="C98" t="n">
-        <v>439</v>
+        <v>188</v>
       </c>
       <c r="D98" t="n">
-        <v>1205</v>
+        <v>712</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>飯</t>
+          <t>豬</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Pork</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>19.8</v>
+        <v>16.5</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3581,29 +3581,29 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>458</v>
+        <v>121</v>
       </c>
       <c r="B99" t="n">
-        <v>1176</v>
+        <v>692</v>
       </c>
       <c r="C99" t="n">
-        <v>499</v>
+        <v>162</v>
       </c>
       <c r="D99" t="n">
-        <v>1203</v>
+        <v>712</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>冬粉</t>
+          <t>泡菜</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vermicelli </t>
+          <t>Kimchi</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>20.9</v>
+        <v>23.1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3613,29 +3613,29 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>406</v>
+        <v>191</v>
       </c>
       <c r="B100" t="n">
-        <v>1208</v>
+        <v>692</v>
       </c>
       <c r="C100" t="n">
-        <v>493</v>
+        <v>216</v>
       </c>
       <c r="D100" t="n">
-        <v>1237</v>
+        <v>712</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>鍋燒意麵</t>
+          <t>雞</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Hop pot noodle</t>
+          <t>Chicken</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>20.4</v>
+        <v>23.1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3645,29 +3645,29 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>735</v>
+        <v>849</v>
       </c>
       <c r="B101" t="n">
-        <v>421</v>
+        <v>694</v>
       </c>
       <c r="C101" t="n">
-        <v>844</v>
+        <v>876</v>
       </c>
       <c r="D101" t="n">
-        <v>447</v>
+        <v>712</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>乾麻油麵線</t>
+          <t>粒</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Dried Vermicelli with Sesame Oil</t>
+          <t>pieces</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>23.1</v>
+        <v>16.5</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3677,25 +3677,25 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>736</v>
+        <v>412</v>
       </c>
       <c r="B102" t="n">
-        <v>454</v>
+        <v>694</v>
       </c>
       <c r="C102" t="n">
-        <v>842</v>
+        <v>569</v>
       </c>
       <c r="D102" t="n">
-        <v>483</v>
+        <v>714</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>乾麻油麵線</t>
+          <t>泡菜拌飯鍋邊素</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dried Vermicelli with Sesame Oil</t>
+          <t>Kimchi hot pot Bibimbap ingredients</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -3709,29 +3709,29 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>757</v>
+        <v>877</v>
       </c>
       <c r="B103" t="n">
-        <v>522</v>
+        <v>693</v>
       </c>
       <c r="C103" t="n">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="D103" t="n">
-        <v>549</v>
+        <v>713</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>手工水餃類</t>
+          <t>份</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Handmade dumplings</t>
+          <t>1 portion</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>20.9</v>
+        <v>22</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3741,29 +3741,29 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>912</v>
+        <v>735</v>
       </c>
       <c r="B104" t="n">
-        <v>519</v>
+        <v>700</v>
       </c>
       <c r="C104" t="n">
-        <v>956</v>
+        <v>817</v>
       </c>
       <c r="D104" t="n">
-        <v>548</v>
+        <v>721</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>單價</t>
+          <t>黃金煎餃</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Unit price</t>
+          <t>Golden fried dumplings</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>19.2</v>
+        <v>20.9</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3773,29 +3773,29 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>966</v>
+        <v>122</v>
       </c>
       <c r="B105" t="n">
-        <v>520</v>
+        <v>725</v>
       </c>
       <c r="C105" t="n">
-        <v>1004</v>
+        <v>164</v>
       </c>
       <c r="D105" t="n">
-        <v>549</v>
+        <v>745</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>數量</t>
+          <t>蝦仁</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Shrimps</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>13.8</v>
+        <v>19.2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -3805,16 +3805,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B106" t="n">
-        <v>555</v>
+        <v>727</v>
       </c>
       <c r="C106" t="n">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="D106" t="n">
-        <v>584</v>
+        <v>745</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3837,16 +3837,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B107" t="n">
-        <v>555</v>
+        <v>726</v>
       </c>
       <c r="C107" t="n">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="D107" t="n">
-        <v>584</v>
+        <v>745</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -3869,29 +3869,29 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>852</v>
+        <v>481</v>
       </c>
       <c r="B108" t="n">
-        <v>590</v>
+        <v>727</v>
       </c>
       <c r="C108" t="n">
-        <v>880</v>
+        <v>544</v>
       </c>
       <c r="D108" t="n">
-        <v>616</v>
+        <v>745</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>粒</t>
+          <t>湯麵類</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>pieces</t>
+          <t>Soup noodles</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>15.4</v>
+        <v>19.8</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -3901,29 +3901,29 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>883</v>
+        <v>679</v>
       </c>
       <c r="B109" t="n">
-        <v>589</v>
+        <v>730</v>
       </c>
       <c r="C109" t="n">
-        <v>914</v>
+        <v>688</v>
       </c>
       <c r="D109" t="n">
-        <v>618</v>
+        <v>741</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>份</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1 portion</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>23.1</v>
+        <v>13.2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -3933,29 +3933,29 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B110" t="n">
-        <v>650</v>
+        <v>719</v>
       </c>
       <c r="C110" t="n">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="D110" t="n">
-        <v>679</v>
+        <v>743</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>不加蛋</t>
+          <t>加蛋</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Without an egg</t>
+          <t>Add eggs</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>20.9</v>
+        <v>23.1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -3965,29 +3965,29 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>849</v>
+        <v>629</v>
       </c>
       <c r="B111" t="n">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="C111" t="n">
-        <v>877</v>
+        <v>665</v>
       </c>
       <c r="D111" t="n">
-        <v>649</v>
+        <v>745</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>粒</t>
+          <t>單價</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>pieces</t>
+          <t>Unit price</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>16.5</v>
+        <v>18.7</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -3997,29 +3997,29 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>879</v>
+        <v>122</v>
       </c>
       <c r="B112" t="n">
-        <v>623</v>
+        <v>758</v>
       </c>
       <c r="C112" t="n">
-        <v>907</v>
+        <v>209</v>
       </c>
       <c r="D112" t="n">
-        <v>649</v>
+        <v>778</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>份</t>
+          <t>茄汁肉絲</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1 portion</t>
+          <t>Tomato sauce shredded meat</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>14.3</v>
+        <v>22</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4029,29 +4029,29 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>847</v>
+        <v>412</v>
       </c>
       <c r="B113" t="n">
-        <v>658</v>
+        <v>760</v>
       </c>
       <c r="C113" t="n">
-        <v>875</v>
+        <v>513</v>
       </c>
       <c r="D113" t="n">
-        <v>684</v>
+        <v>779</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>粒</t>
+          <t>什錦海鮮麵</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>pieces</t>
+          <t>Okonomiyaki jjamppong</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>15.4</v>
+        <v>20.9</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4061,29 +4061,29 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>756</v>
+        <v>867</v>
       </c>
       <c r="B114" t="n">
-        <v>921</v>
+        <v>759</v>
       </c>
       <c r="C114" t="n">
-        <v>864</v>
+        <v>892</v>
       </c>
       <c r="D114" t="n">
-        <v>946</v>
+        <v>778</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>小菜&amp;湯類</t>
+          <t>粒</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Side dishes &amp; soups</t>
+          <t>pieces</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>19.8</v>
+        <v>22</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4093,25 +4093,25 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>906</v>
+        <v>727</v>
       </c>
       <c r="B115" t="n">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="C115" t="n">
-        <v>947</v>
+        <v>853</v>
       </c>
       <c r="D115" t="n">
-        <v>947</v>
+        <v>778</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>單價</t>
+          <t>青菜蛋花湯餃</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Unit price</t>
+          <t>Green vegetable egg flower soup dumplings.</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -4125,29 +4125,29 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>954</v>
+        <v>168</v>
       </c>
       <c r="B116" t="n">
-        <v>919</v>
+        <v>792</v>
       </c>
       <c r="C116" t="n">
-        <v>996</v>
+        <v>188</v>
       </c>
       <c r="D116" t="n">
-        <v>946</v>
+        <v>811</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>數量</t>
+          <t>豬</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Pork</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>16.5</v>
+        <v>20.9</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4157,29 +4157,29 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>733</v>
+        <v>191</v>
       </c>
       <c r="B117" t="n">
-        <v>952</v>
+        <v>792</v>
       </c>
       <c r="C117" t="n">
-        <v>852</v>
+        <v>216</v>
       </c>
       <c r="D117" t="n">
-        <v>979</v>
+        <v>811</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>單點滷雞腿</t>
+          <t>雞</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Braised Chicken Legs</t>
+          <t>Chicken.</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -4189,25 +4189,25 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>731</v>
+        <v>413</v>
       </c>
       <c r="B118" t="n">
-        <v>982</v>
+        <v>793</v>
       </c>
       <c r="C118" t="n">
-        <v>801</v>
+        <v>513</v>
       </c>
       <c r="D118" t="n">
-        <v>1012</v>
+        <v>812</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>單點豬</t>
+          <t>蕃茄雞肉麵</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>single-dish pork</t>
+          <t>Tomato chicken noodles</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -4221,29 +4221,29 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>805</v>
+        <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>985</v>
+        <v>791</v>
       </c>
       <c r="C119" t="n">
-        <v>833</v>
+        <v>163</v>
       </c>
       <c r="D119" t="n">
-        <v>1011</v>
+        <v>811</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>雞</t>
+          <t>酸辣</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Chicken</t>
+          <t>Hot and sour</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>17.6</v>
+        <v>22.6</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4253,29 +4253,29 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>833</v>
+        <v>123</v>
       </c>
       <c r="B120" t="n">
-        <v>985</v>
+        <v>824</v>
       </c>
       <c r="C120" t="n">
-        <v>861</v>
+        <v>209</v>
       </c>
       <c r="D120" t="n">
-        <v>1011</v>
+        <v>844</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>排</t>
+          <t>皮蛋火腿</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>chops</t>
+          <t>hams with egg</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -4285,29 +4285,29 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>735</v>
+        <v>412</v>
       </c>
       <c r="B121" t="n">
-        <v>1016</v>
+        <v>826</v>
       </c>
       <c r="C121" t="n">
-        <v>828</v>
+        <v>535</v>
       </c>
       <c r="D121" t="n">
-        <v>1047</v>
+        <v>845</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>現炒青菜</t>
+          <t>榨菜肉絲湯麵</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Stir-fried vegetables</t>
+          <t>Pickled pork shreds soup noodles</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>23.1</v>
+        <v>20.9</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -4317,29 +4317,29 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="B122" t="n">
-        <v>1052</v>
+        <v>826</v>
       </c>
       <c r="C122" t="n">
-        <v>825</v>
+        <v>784</v>
       </c>
       <c r="D122" t="n">
-        <v>1077</v>
+        <v>845</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>皮蛋豆腐</t>
+          <t>泡打飯</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Tofu with Century Egg Salad</t>
+          <t>Fried rice</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>22</v>
+        <v>20.4</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -4349,29 +4349,29 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>731</v>
+        <v>813</v>
       </c>
       <c r="B123" t="n">
-        <v>1080</v>
+        <v>827</v>
       </c>
       <c r="C123" t="n">
-        <v>805</v>
+        <v>842</v>
       </c>
       <c r="D123" t="n">
-        <v>1110</v>
+        <v>843</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>燙青菜</t>
+          <t>小</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blanched Vegetables </t>
+          <t>Small</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>22</v>
+        <v>18.7</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -4381,29 +4381,29 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>730</v>
+        <v>909</v>
       </c>
       <c r="B124" t="n">
-        <v>1113</v>
+        <v>827</v>
       </c>
       <c r="C124" t="n">
-        <v>781</v>
+        <v>924</v>
       </c>
       <c r="D124" t="n">
-        <v>1137</v>
+        <v>843</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>薯條</t>
+          <t>大</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>French fries</t>
+          <t>Large</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>19.8</v>
+        <v>17.6</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4413,29 +4413,29 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>726</v>
+        <v>519</v>
       </c>
       <c r="B125" t="n">
-        <v>1143</v>
+        <v>858</v>
       </c>
       <c r="C125" t="n">
-        <v>826</v>
+        <v>543</v>
       </c>
       <c r="D125" t="n">
-        <v>1173</v>
+        <v>879</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>涼拌豆腐</t>
+          <t>大</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Spicy Cold Tofu</t>
+          <t>Large</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>21.5</v>
+        <v>20.9</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -4445,29 +4445,29 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>730</v>
+        <v>123</v>
       </c>
       <c r="B126" t="n">
-        <v>1177</v>
+        <v>857</v>
       </c>
       <c r="C126" t="n">
-        <v>804</v>
+        <v>209</v>
       </c>
       <c r="D126" t="n">
-        <v>1209</v>
+        <v>877</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>炸豆腐</t>
+          <t>榨菜肉絲</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Fried tofu</t>
+          <t>Stir-fried Shredded-Pork With Pickled Mustard Tuber</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -4477,29 +4477,29 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>731</v>
+        <v>411</v>
       </c>
       <c r="B127" t="n">
-        <v>1208</v>
+        <v>858</v>
       </c>
       <c r="C127" t="n">
-        <v>823</v>
+        <v>514</v>
       </c>
       <c r="D127" t="n">
-        <v>1238</v>
+        <v>878</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>炸甜不辣</t>
+          <t>沙茶雞絲麵</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Fried sweet and not spicy</t>
+          <t>Shacha sauce chicken noodles</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>21.5</v>
+        <v>20.9</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -4509,29 +4509,29 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B128" t="n">
-        <v>1243</v>
+        <v>858</v>
       </c>
       <c r="C128" t="n">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="D128" t="n">
-        <v>1268</v>
+        <v>877</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>蔥蛋</t>
+          <t>雞肉飯</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Fried egg with green onion</t>
+          <t>Chicken rice</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -4541,29 +4541,29 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>731</v>
+        <v>811</v>
       </c>
       <c r="B129" t="n">
-        <v>1273</v>
+        <v>861</v>
       </c>
       <c r="C129" t="n">
-        <v>795</v>
+        <v>830</v>
       </c>
       <c r="D129" t="n">
-        <v>1304</v>
+        <v>875</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>荷包蛋</t>
+          <t>小</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Cantonese Fried Egg</t>
+          <t>Small</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>20.9</v>
+        <v>14.3</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4573,29 +4573,29 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>799</v>
+        <v>908</v>
       </c>
       <c r="B130" t="n">
-        <v>1279</v>
+        <v>861</v>
       </c>
       <c r="C130" t="n">
-        <v>888</v>
+        <v>938</v>
       </c>
       <c r="D130" t="n">
-        <v>1304</v>
+        <v>876</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>外带不另外装餐盒</t>
+          <t>大</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Take out without additional meal box</t>
+          <t>Large</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>15.4</v>
+        <v>17.6</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -4605,29 +4605,29 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>731</v>
+        <v>122</v>
       </c>
       <c r="B131" t="n">
-        <v>1337</v>
+        <v>889</v>
       </c>
       <c r="C131" t="n">
-        <v>800</v>
+        <v>259</v>
       </c>
       <c r="D131" t="n">
-        <v>1368</v>
+        <v>909</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>貢丸湯</t>
+          <t>培根蛋一家親</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Pork Ball Soup</t>
+          <t>Bacon and Eggs</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>20.9</v>
+        <v>21.5</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -4637,29 +4637,29 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>729</v>
+        <v>410</v>
       </c>
       <c r="B132" t="n">
-        <v>1370</v>
+        <v>891</v>
       </c>
       <c r="C132" t="n">
-        <v>844</v>
+        <v>513</v>
       </c>
       <c r="D132" t="n">
-        <v>1400</v>
+        <v>910</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>青菜豆腐湯</t>
+          <t>沙茶雞絲麵</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Green vegetable tofu soup</t>
+          <t>Shacha sauce chicken noodles</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>20.9</v>
+        <v>22</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -4669,29 +4669,29 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>728</v>
+        <v>517</v>
       </c>
       <c r="B133" t="n">
-        <v>1404</v>
+        <v>892</v>
       </c>
       <c r="C133" t="n">
-        <v>847</v>
+        <v>545</v>
       </c>
       <c r="D133" t="n">
-        <v>1432</v>
+        <v>909</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>青菜蛋花湯</t>
+          <t>小</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Green vegetable omelet soup</t>
+          <t>Small</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>20.9</v>
+        <v>18.7</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -4701,29 +4701,29 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>359</v>
+        <v>907</v>
       </c>
       <c r="B134" t="n">
-        <v>1238</v>
+        <v>894</v>
       </c>
       <c r="C134" t="n">
-        <v>402</v>
+        <v>938</v>
       </c>
       <c r="D134" t="n">
-        <v>1269</v>
+        <v>909</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>數量</t>
+          <t>大</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Large</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>13.2</v>
+        <v>17.1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -4733,25 +4733,25 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>112</v>
+        <v>725</v>
       </c>
       <c r="B135" t="n">
-        <v>1272</v>
+        <v>890</v>
       </c>
       <c r="C135" t="n">
-        <v>207</v>
+        <v>783</v>
       </c>
       <c r="D135" t="n">
-        <v>1299</v>
+        <v>910</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>素菜蓋飯</t>
+          <t>肉燥飯</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Vegetable rice bowl</t>
+          <t>Dry meat rice</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -4765,29 +4765,29 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>112</v>
+        <v>809</v>
       </c>
       <c r="B136" t="n">
-        <v>1304</v>
+        <v>893</v>
       </c>
       <c r="C136" t="n">
-        <v>253</v>
+        <v>842</v>
       </c>
       <c r="D136" t="n">
-        <v>1331</v>
+        <v>911</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>番茄菇菇湯麵</t>
+          <t>小</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Tomato mushroom soup noodles</t>
+          <t>Small.</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>20.9</v>
+        <v>19.2</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -4797,29 +4797,29 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="B137" t="n">
-        <v>1335</v>
+        <v>923</v>
       </c>
       <c r="C137" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D137" t="n">
-        <v>1363</v>
+        <v>941</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>素三杯</t>
+          <t>豬</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vegetable and three cups </t>
+          <t>Pork</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>22</v>
+        <v>20.9</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
@@ -4829,29 +4829,29 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="B138" t="n">
-        <v>1335</v>
+        <v>923</v>
       </c>
       <c r="C138" t="n">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="D138" t="n">
-        <v>1364</v>
+        <v>941</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>炒麵</t>
+          <t>雞</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Stir-fried noodles</t>
+          <t>Chicken</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>19.8</v>
+        <v>20.9</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -4861,29 +4861,29 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B139" t="n">
-        <v>1432</v>
+        <v>922</v>
       </c>
       <c r="C139" t="n">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D139" t="n">
-        <v>1457</v>
+        <v>942</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>蛋炒</t>
+          <t>香辣</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Egg fried-</t>
+          <t>Spicy</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>18.1</v>
+        <v>22</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -4893,25 +4893,25 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111</v>
+        <v>410</v>
       </c>
       <c r="B140" t="n">
-        <v>1464</v>
+        <v>924</v>
       </c>
       <c r="C140" t="n">
-        <v>206</v>
+        <v>536</v>
       </c>
       <c r="D140" t="n">
-        <v>1488</v>
+        <v>943</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>蔬菜湯麵</t>
+          <t>韓式泡菜湯麵</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Vegetable soup noodles</t>
+          <t>Korean Kimchi noodle soup</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -4925,29 +4925,29 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>115</v>
+        <v>541</v>
       </c>
       <c r="B141" t="n">
-        <v>1491</v>
+        <v>925</v>
       </c>
       <c r="C141" t="n">
-        <v>209</v>
+        <v>586</v>
       </c>
       <c r="D141" t="n">
-        <v>1519</v>
+        <v>943</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>傻瓜乾麵</t>
+          <t>冬粉</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Fool's Dried noodles</t>
+          <t xml:space="preserve">Vermicelli </t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
@@ -4957,29 +4957,29 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>459</v>
+        <v>958</v>
       </c>
       <c r="B142" t="n">
-        <v>247</v>
+        <v>926</v>
       </c>
       <c r="C142" t="n">
-        <v>502</v>
+        <v>971</v>
       </c>
       <c r="D142" t="n">
-        <v>273</v>
+        <v>940</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>豬排</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Pork cutlet</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -4989,29 +4989,29 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>565</v>
+        <v>907</v>
       </c>
       <c r="B143" t="n">
-        <v>243</v>
+        <v>924</v>
       </c>
       <c r="C143" t="n">
-        <v>604</v>
+        <v>945</v>
       </c>
       <c r="D143" t="n">
-        <v>275</v>
+        <v>943</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>套餐</t>
+          <t>單價</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Set menu</t>
+          <t>Unit price</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>22.6</v>
+        <v>20.9</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -5021,29 +5021,29 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>510</v>
+        <v>763</v>
       </c>
       <c r="B144" t="n">
-        <v>488</v>
+        <v>925</v>
       </c>
       <c r="C144" t="n">
-        <v>552</v>
+        <v>858</v>
       </c>
       <c r="D144" t="n">
-        <v>516</v>
+        <v>942</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>羊肉</t>
+          <t>小菜&amp;湯類</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Mutton</t>
+          <t>Side dishes &amp; soups</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>22.6</v>
+        <v>19.8</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5053,25 +5053,25 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>559</v>
+        <v>123</v>
       </c>
       <c r="B145" t="n">
-        <v>487</v>
+        <v>955</v>
       </c>
       <c r="C145" t="n">
-        <v>602</v>
+        <v>164</v>
       </c>
       <c r="D145" t="n">
-        <v>516</v>
+        <v>974</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>蓋飯</t>
+          <t>香腸</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Rice with toppings</t>
+          <t>Sausage</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -5085,29 +5085,29 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B146" t="n">
-        <v>522</v>
+        <v>956</v>
       </c>
       <c r="C146" t="n">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="D146" t="n">
-        <v>549</v>
+        <v>975</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>沙茶</t>
+          <t>蔬菜湯麵</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Shacha sauce</t>
+          <t>Vegetable soup noodles</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>21.5</v>
+        <v>20.9</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -5117,29 +5117,29 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>460</v>
+        <v>738</v>
       </c>
       <c r="B147" t="n">
-        <v>525</v>
+        <v>958</v>
       </c>
       <c r="C147" t="n">
-        <v>498</v>
+        <v>848</v>
       </c>
       <c r="D147" t="n">
-        <v>547</v>
+        <v>978</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>猪肉</t>
+          <t>單點滷雞腿</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Pork</t>
+          <t>Braised Chicken Legs</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
@@ -5149,29 +5149,29 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>511</v>
+        <v>122</v>
       </c>
       <c r="B148" t="n">
-        <v>524</v>
+        <v>987</v>
       </c>
       <c r="C148" t="n">
-        <v>551</v>
+        <v>164</v>
       </c>
       <c r="D148" t="n">
-        <v>548</v>
+        <v>1007</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>雞肉</t>
+          <t>培根</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Chicken</t>
+          <t>Bacon</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -5181,29 +5181,29 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="B149" t="n">
-        <v>521</v>
+        <v>990</v>
       </c>
       <c r="C149" t="n">
-        <v>603</v>
+        <v>552</v>
       </c>
       <c r="D149" t="n">
-        <v>549</v>
+        <v>1009</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>蓋飯</t>
+          <t>白</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Rice with toppings</t>
+          <t>White</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>22.6</v>
+        <v>16</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -5213,29 +5213,29 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="B150" t="n">
-        <v>556</v>
+        <v>990</v>
       </c>
       <c r="C150" t="n">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="D150" t="n">
-        <v>584</v>
+        <v>1007</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>蠔油</t>
+          <t>黃</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Oyster Sauce</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>21.5</v>
+        <v>15.4</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -5245,29 +5245,29 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>460</v>
+        <v>737</v>
       </c>
       <c r="B151" t="n">
-        <v>557</v>
+        <v>990</v>
       </c>
       <c r="C151" t="n">
-        <v>497</v>
+        <v>801</v>
       </c>
       <c r="D151" t="n">
-        <v>582</v>
+        <v>1010</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>牛肉</t>
+          <t>單點豬</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Beef</t>
+          <t>single-dish pork</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>22.6</v>
+        <v>22</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
@@ -5277,29 +5277,29 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>511</v>
+        <v>411</v>
       </c>
       <c r="B152" t="n">
-        <v>556</v>
+        <v>989</v>
       </c>
       <c r="C152" t="n">
-        <v>551</v>
+        <v>491</v>
       </c>
       <c r="D152" t="n">
-        <v>582</v>
+        <v>1007</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>羊肉</t>
+          <t>肉燥湯麵</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Mutton</t>
+          <t>Dry meat soup noodles</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>23.1</v>
+        <v>20.9</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -5309,29 +5309,29 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>559</v>
+        <v>805</v>
       </c>
       <c r="B153" t="n">
-        <v>557</v>
+        <v>991</v>
       </c>
       <c r="C153" t="n">
-        <v>599</v>
+        <v>827</v>
       </c>
       <c r="D153" t="n">
-        <v>582</v>
+        <v>1010</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>蓋飯</t>
+          <t>雞</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Rice with toppings</t>
+          <t>Chicken</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>23.1</v>
+        <v>17.6</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -5341,29 +5341,29 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>410</v>
+        <v>831</v>
       </c>
       <c r="B154" t="n">
-        <v>589</v>
+        <v>990</v>
       </c>
       <c r="C154" t="n">
-        <v>450</v>
+        <v>853</v>
       </c>
       <c r="D154" t="n">
-        <v>616</v>
+        <v>1009</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>蠔油</t>
+          <t>排</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Oyster Sauce</t>
+          <t>chops</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -5373,29 +5373,29 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>459</v>
+        <v>123</v>
       </c>
       <c r="B155" t="n">
-        <v>590</v>
+        <v>1020</v>
       </c>
       <c r="C155" t="n">
-        <v>499</v>
+        <v>209</v>
       </c>
       <c r="D155" t="n">
-        <v>618</v>
+        <v>1040</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>猪肉</t>
+          <t>宮保雞丁</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Pork</t>
+          <t xml:space="preserve">Kung pao chicken </t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>22.6</v>
+        <v>22</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -5405,29 +5405,29 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="B156" t="n">
-        <v>590</v>
+        <v>1021</v>
       </c>
       <c r="C156" t="n">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="D156" t="n">
-        <v>618</v>
+        <v>1040</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>雞肉</t>
+          <t>湯麻油麵線</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Chicken</t>
+          <t>Soup and sesame oil noodles</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>22.6</v>
+        <v>20.9</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5437,29 +5437,29 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>560</v>
+        <v>519</v>
       </c>
       <c r="B157" t="n">
-        <v>590</v>
+        <v>1022</v>
       </c>
       <c r="C157" t="n">
-        <v>599</v>
+        <v>541</v>
       </c>
       <c r="D157" t="n">
-        <v>618</v>
+        <v>1041</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>蓋飯</t>
+          <t>大</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Rice with toppings</t>
+          <t>Large</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>22.6</v>
+        <v>22</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -5469,29 +5469,29 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>412</v>
+        <v>736</v>
       </c>
       <c r="B158" t="n">
-        <v>622</v>
+        <v>1023</v>
       </c>
       <c r="C158" t="n">
-        <v>450</v>
+        <v>824</v>
       </c>
       <c r="D158" t="n">
-        <v>650</v>
+        <v>1043</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>泡菜</t>
+          <t>現炒青菜</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Kimchi</t>
+          <t>Stir-fried vegetables</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>22</v>
+        <v>23.1</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -5501,29 +5501,29 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>460</v>
+        <v>123</v>
       </c>
       <c r="B159" t="n">
-        <v>623</v>
+        <v>1052</v>
       </c>
       <c r="C159" t="n">
-        <v>496</v>
+        <v>186</v>
       </c>
       <c r="D159" t="n">
-        <v>650</v>
+        <v>1072</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>牛肉</t>
+          <t>三杯雞</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Beef</t>
+          <t>Sanbeiji (Three cup chicken)</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -5533,29 +5533,29 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>511</v>
+        <v>410</v>
       </c>
       <c r="B160" t="n">
-        <v>622</v>
+        <v>1053</v>
       </c>
       <c r="C160" t="n">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="D160" t="n">
-        <v>651</v>
+        <v>1072</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>羊肉</t>
+          <t>湯麻油麵線</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Mutton</t>
+          <t>Soup and sesame oil noodles</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>22</v>
+        <v>19.8</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -5565,29 +5565,29 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>558</v>
+        <v>517</v>
       </c>
       <c r="B161" t="n">
-        <v>623</v>
+        <v>1054</v>
       </c>
       <c r="C161" t="n">
-        <v>599</v>
+        <v>543</v>
       </c>
       <c r="D161" t="n">
-        <v>652</v>
+        <v>1071</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>拌飯</t>
+          <t>小</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Bibimbap</t>
+          <t>Small</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>23.1</v>
+        <v>18.7</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -5597,25 +5597,25 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>409</v>
+        <v>736</v>
       </c>
       <c r="B162" t="n">
-        <v>655</v>
+        <v>1055</v>
       </c>
       <c r="C162" t="n">
-        <v>449</v>
+        <v>823</v>
       </c>
       <c r="D162" t="n">
-        <v>682</v>
+        <v>1075</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>泡菜</t>
+          <t>皮蛋豆腐</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Kimchi</t>
+          <t>Tofu with Century Egg Salad</t>
         </is>
       </c>
       <c r="G162" t="n">
@@ -5629,25 +5629,25 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>457</v>
+        <v>735</v>
       </c>
       <c r="B163" t="n">
-        <v>656</v>
+        <v>1088</v>
       </c>
       <c r="C163" t="n">
-        <v>498</v>
+        <v>799</v>
       </c>
       <c r="D163" t="n">
-        <v>682</v>
+        <v>1107</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>猪肉</t>
+          <t>燙青菜</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Pork</t>
+          <t xml:space="preserve">Blanched Vegetables </t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -5661,29 +5661,29 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>511</v>
+        <v>123</v>
       </c>
       <c r="B164" t="n">
-        <v>656</v>
+        <v>1085</v>
       </c>
       <c r="C164" t="n">
-        <v>549</v>
+        <v>163</v>
       </c>
       <c r="D164" t="n">
-        <v>683</v>
+        <v>1104</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>雞肉</t>
+          <t>肉絲</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Chicken</t>
+          <t>Pork shreds</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>22.6</v>
+        <v>22</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -5693,29 +5693,29 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>556</v>
+        <v>122</v>
       </c>
       <c r="B165" t="n">
-        <v>655</v>
+        <v>1117</v>
       </c>
       <c r="C165" t="n">
-        <v>602</v>
+        <v>163</v>
       </c>
       <c r="D165" t="n">
-        <v>682</v>
+        <v>1137</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>拌飯</t>
+          <t>雞肉</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Bibimbap</t>
+          <t>Chicken</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -5725,29 +5725,29 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="B166" t="n">
-        <v>689</v>
+        <v>1117</v>
       </c>
       <c r="C166" t="n">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="D166" t="n">
-        <v>717</v>
+        <v>1134</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>泡菜拌飯鍋邊素</t>
+          <t>火鍋類</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Kimchi hot pot Bibimbap ingredients</t>
+          <t>Hot pot dishes</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>22</v>
+        <v>18.7</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
@@ -5757,29 +5757,29 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B167" t="n">
-        <v>211</v>
+        <v>1119</v>
       </c>
       <c r="C167" t="n">
-        <v>873</v>
+        <v>777</v>
       </c>
       <c r="D167" t="n">
-        <v>237</v>
+        <v>1138</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>招牌麻辣乾麵</t>
+          <t>薯條</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>The signature spicy dried noodles</t>
+          <t>French fries</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>24.2</v>
+        <v>19.8</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -5789,29 +5789,29 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>740</v>
+        <v>623</v>
       </c>
       <c r="B168" t="n">
-        <v>245</v>
+        <v>1119</v>
       </c>
       <c r="C168" t="n">
-        <v>877</v>
+        <v>662</v>
       </c>
       <c r="D168" t="n">
-        <v>272</v>
+        <v>1137</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>招牌泡打乾麵</t>
+          <t>單價</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>The signature bubble dry noodles</t>
+          <t>Unit price</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>23.7</v>
+        <v>19.2</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -5821,29 +5821,29 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>737</v>
+        <v>668</v>
       </c>
       <c r="B169" t="n">
-        <v>279</v>
+        <v>1121</v>
       </c>
       <c r="C169" t="n">
-        <v>872</v>
+        <v>705</v>
       </c>
       <c r="D169" t="n">
-        <v>310</v>
+        <v>1135</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>麻辣炸醬乾麵</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Spicy Jjajang dried noodles</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>23.7</v>
+        <v>16</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -5856,26 +5856,26 @@
         <v>734</v>
       </c>
       <c r="B170" t="n">
-        <v>314</v>
+        <v>1152</v>
       </c>
       <c r="C170" t="n">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D170" t="n">
-        <v>347</v>
+        <v>1171</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>炸醬乾麵</t>
+          <t>涼拌豆腐</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Dried noodles with black bean paste</t>
+          <t>Spicy Cold Tofu</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>23.1</v>
+        <v>21.5</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -5885,29 +5885,29 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>734</v>
+        <v>408</v>
       </c>
       <c r="B171" t="n">
-        <v>351</v>
+        <v>1150</v>
       </c>
       <c r="C171" t="n">
-        <v>824</v>
+        <v>510</v>
       </c>
       <c r="D171" t="n">
-        <v>381</v>
+        <v>1169</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>肉燥乾麵</t>
+          <t>韓式泡菜鍋</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Dried noodles with dried meat</t>
+          <t>Kimchi pot</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>22.6</v>
+        <v>19.8</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
@@ -5917,29 +5917,29 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>832</v>
+        <v>122</v>
       </c>
       <c r="B172" t="n">
-        <v>349</v>
+        <v>1149</v>
       </c>
       <c r="C172" t="n">
-        <v>863</v>
+        <v>163</v>
       </c>
       <c r="D172" t="n">
-        <v>378</v>
+        <v>1169</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>黃</t>
+          <t>火腿</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>ham</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
@@ -5949,25 +5949,25 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>861</v>
+        <v>122</v>
       </c>
       <c r="B173" t="n">
-        <v>350</v>
+        <v>1182</v>
       </c>
       <c r="C173" t="n">
-        <v>892</v>
+        <v>162</v>
       </c>
       <c r="D173" t="n">
-        <v>379</v>
+        <v>1202</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>白</t>
+          <t>茄汁</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Tomato Sauce</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -5981,29 +5981,29 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>736</v>
+        <v>409</v>
       </c>
       <c r="B174" t="n">
-        <v>388</v>
+        <v>1183</v>
       </c>
       <c r="C174" t="n">
-        <v>826</v>
+        <v>427</v>
       </c>
       <c r="D174" t="n">
-        <v>413</v>
+        <v>1200</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>傻瓜乾麵</t>
+          <t>飯</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Fool's Dried noodles</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>22.6</v>
+        <v>19.8</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
@@ -6013,29 +6013,29 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>850</v>
+        <v>460</v>
       </c>
       <c r="B175" t="n">
-        <v>420</v>
+        <v>1183</v>
       </c>
       <c r="C175" t="n">
-        <v>878</v>
+        <v>496</v>
       </c>
       <c r="D175" t="n">
-        <v>446</v>
+        <v>1201</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>大</t>
+          <t>冬粉</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t xml:space="preserve">Vermicelli </t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>23.1</v>
+        <v>20.9</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
@@ -6045,29 +6045,29 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>849</v>
+        <v>733</v>
       </c>
       <c r="B176" t="n">
-        <v>455</v>
+        <v>1184</v>
       </c>
       <c r="C176" t="n">
-        <v>874</v>
+        <v>798</v>
       </c>
       <c r="D176" t="n">
-        <v>479</v>
+        <v>1204</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>小</t>
+          <t>炸豆腐</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Fried tofu</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>19.2</v>
+        <v>22</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -6077,29 +6077,29 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>738</v>
+        <v>408</v>
       </c>
       <c r="B177" t="n">
-        <v>574</v>
+        <v>1215</v>
       </c>
       <c r="C177" t="n">
-        <v>801</v>
+        <v>487</v>
       </c>
       <c r="D177" t="n">
-        <v>606</v>
+        <v>1233</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>高麗菜</t>
+          <t>鍋燒意麵</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Cabbage</t>
+          <t>Hop pot noodle</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>22</v>
+        <v>20.4</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
@@ -6109,29 +6109,29 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B178" t="n">
-        <v>624</v>
+        <v>1216</v>
       </c>
       <c r="C178" t="n">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D178" t="n">
-        <v>653</v>
+        <v>1235</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>黃金煎餃</t>
+          <t>炸甜不辣</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Golden fried dumplings</t>
+          <t>Fried sweet and not spicy</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>23.1</v>
+        <v>21.5</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
@@ -6141,25 +6141,25 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>733</v>
+        <v>122</v>
       </c>
       <c r="B179" t="n">
-        <v>694</v>
+        <v>1215</v>
       </c>
       <c r="C179" t="n">
-        <v>822</v>
+        <v>140</v>
       </c>
       <c r="D179" t="n">
-        <v>724</v>
+        <v>1233</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>黃金煎餃</t>
+          <t>蛋</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Golden fried dumplings</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -6173,29 +6173,29 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>878</v>
+        <v>362</v>
       </c>
       <c r="B180" t="n">
-        <v>655</v>
+        <v>1250</v>
       </c>
       <c r="C180" t="n">
-        <v>906</v>
+        <v>375</v>
       </c>
       <c r="D180" t="n">
-        <v>681</v>
+        <v>1261</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>份</t>
+          <t>數量</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1 portion</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>23.1</v>
+        <v>13.2</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -6205,29 +6205,29 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>848</v>
+        <v>200</v>
       </c>
       <c r="B181" t="n">
-        <v>688</v>
+        <v>1245</v>
       </c>
       <c r="C181" t="n">
-        <v>876</v>
+        <v>261</v>
       </c>
       <c r="D181" t="n">
-        <v>714</v>
+        <v>1262</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>粒</t>
+          <t>素食類</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>pieces</t>
+          <t>Vegetarian food</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>16.5</v>
+        <v>18.7</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -6237,29 +6237,29 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>880</v>
+        <v>316</v>
       </c>
       <c r="B182" t="n">
-        <v>689</v>
+        <v>1247</v>
       </c>
       <c r="C182" t="n">
-        <v>905</v>
+        <v>351</v>
       </c>
       <c r="D182" t="n">
-        <v>713</v>
+        <v>1262</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>份</t>
+          <t>單價</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1 portion</t>
+          <t>Unit price</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
@@ -6269,29 +6269,29 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>845</v>
+        <v>733</v>
       </c>
       <c r="B183" t="n">
-        <v>720</v>
+        <v>1248</v>
       </c>
       <c r="C183" t="n">
-        <v>873</v>
+        <v>774</v>
       </c>
       <c r="D183" t="n">
-        <v>746</v>
+        <v>1268</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>粒</t>
+          <t>蔥蛋</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>pieces</t>
+          <t>Fried egg with green onion</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>14.3</v>
+        <v>21.5</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -6301,29 +6301,29 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>878</v>
+        <v>115</v>
       </c>
       <c r="B184" t="n">
-        <v>720</v>
+        <v>1278</v>
       </c>
       <c r="C184" t="n">
-        <v>906</v>
+        <v>202</v>
       </c>
       <c r="D184" t="n">
-        <v>746</v>
+        <v>1297</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>份</t>
+          <t>素菜蓋飯</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1 portion</t>
+          <t>Vegetable rice bowl</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>22</v>
+        <v>20.9</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -6333,29 +6333,29 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B185" t="n">
-        <v>722</v>
+        <v>1280</v>
       </c>
       <c r="C185" t="n">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="D185" t="n">
-        <v>743</v>
+        <v>1300</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>加蛋</t>
+          <t>荷包蛋</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Add eggs</t>
+          <t>Cantonese Fried Egg</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>23.1</v>
+        <v>20.9</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -6365,29 +6365,29 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="B186" t="n">
-        <v>757</v>
+        <v>1286</v>
       </c>
       <c r="C186" t="n">
-        <v>851</v>
+        <v>888</v>
       </c>
       <c r="D186" t="n">
-        <v>781</v>
+        <v>1302</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>青菜蛋花湯餃</t>
+          <t>外带不另外装餐盒</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Green vegetable egg flower soup dumplings.</t>
+          <t>Take out without additional meal box</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>20.9</v>
+        <v>15.4</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -6397,29 +6397,29 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>868</v>
+        <v>115</v>
       </c>
       <c r="B187" t="n">
-        <v>754</v>
+        <v>1310</v>
       </c>
       <c r="C187" t="n">
-        <v>894</v>
+        <v>246</v>
       </c>
       <c r="D187" t="n">
-        <v>779</v>
+        <v>1329</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>粒</t>
+          <t>番茄菇菇湯麵</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>pieces</t>
+          <t>Tomato mushroom soup noodles</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>22</v>
+        <v>20.9</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
@@ -6429,20 +6429,20 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>718</v>
+        <v>183</v>
       </c>
       <c r="B188" t="n">
-        <v>819</v>
+        <v>1341</v>
       </c>
       <c r="C188" t="n">
-        <v>785</v>
+        <v>227</v>
       </c>
       <c r="D188" t="n">
-        <v>847</v>
+        <v>1360</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>泡打飯</t>
+          <t>炒飯</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6451,7 +6451,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>20.4</v>
+        <v>21.5</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
@@ -6461,25 +6461,25 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>722</v>
+        <v>115</v>
       </c>
       <c r="B189" t="n">
-        <v>853</v>
+        <v>1342</v>
       </c>
       <c r="C189" t="n">
-        <v>785</v>
+        <v>179</v>
       </c>
       <c r="D189" t="n">
-        <v>879</v>
+        <v>1361</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>雞肉飯</t>
+          <t>素三杯</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Chicken rice</t>
+          <t xml:space="preserve">Vegetable and three cups </t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -6493,29 +6493,29 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>721</v>
+        <v>228</v>
       </c>
       <c r="B190" t="n">
-        <v>886</v>
+        <v>1342</v>
       </c>
       <c r="C190" t="n">
-        <v>793</v>
+        <v>277</v>
       </c>
       <c r="D190" t="n">
-        <v>914</v>
+        <v>1360</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>肉燥飯</t>
+          <t>炒麵</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Dry meat rice</t>
+          <t>Stir-fried noodles</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>20.9</v>
+        <v>19.8</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
@@ -6525,29 +6525,29 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>809</v>
+        <v>732</v>
       </c>
       <c r="B191" t="n">
-        <v>819</v>
+        <v>1345</v>
       </c>
       <c r="C191" t="n">
-        <v>840</v>
+        <v>795</v>
       </c>
       <c r="D191" t="n">
-        <v>848</v>
+        <v>1364</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>小</t>
+          <t>貢丸湯</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Pork Ball Soup</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>18.7</v>
+        <v>20.9</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
@@ -6557,29 +6557,29 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>807</v>
+        <v>160</v>
       </c>
       <c r="B192" t="n">
-        <v>854</v>
+        <v>1373</v>
       </c>
       <c r="C192" t="n">
-        <v>833</v>
+        <v>203</v>
       </c>
       <c r="D192" t="n">
-        <v>879</v>
+        <v>1392</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>小</t>
+          <t>飯</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Fried rice</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>14.3</v>
+        <v>20.9</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
@@ -6589,29 +6589,29 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>808</v>
+        <v>206</v>
       </c>
       <c r="B193" t="n">
-        <v>887</v>
+        <v>1374</v>
       </c>
       <c r="C193" t="n">
-        <v>836</v>
+        <v>231</v>
       </c>
       <c r="D193" t="n">
-        <v>913</v>
+        <v>1392</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>小</t>
+          <t>麵</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Small.</t>
+          <t>Noodles</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>19.2</v>
+        <v>20.9</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
@@ -6621,29 +6621,29 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>907</v>
+        <v>115</v>
       </c>
       <c r="B194" t="n">
-        <v>823</v>
+        <v>1374</v>
       </c>
       <c r="C194" t="n">
-        <v>933</v>
+        <v>155</v>
       </c>
       <c r="D194" t="n">
-        <v>848</v>
+        <v>1392</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>大</t>
+          <t>素菜炒</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Vegetable stir-fry.</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>17.6</v>
+        <v>20.9</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
@@ -6653,29 +6653,29 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>905</v>
+        <v>732</v>
       </c>
       <c r="B195" t="n">
-        <v>854</v>
+        <v>1377</v>
       </c>
       <c r="C195" t="n">
-        <v>934</v>
+        <v>840</v>
       </c>
       <c r="D195" t="n">
-        <v>882</v>
+        <v>1396</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>大</t>
+          <t>青菜豆腐湯</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Green vegetable tofu soup</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>17.6</v>
+        <v>20.9</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
@@ -6685,29 +6685,29 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>901</v>
+        <v>160</v>
       </c>
       <c r="B196" t="n">
-        <v>885</v>
+        <v>1405</v>
       </c>
       <c r="C196" t="n">
-        <v>932</v>
+        <v>205</v>
       </c>
       <c r="D196" t="n">
-        <v>914</v>
+        <v>1424</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>大</t>
+          <t>飯</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Fried rice</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>17.1</v>
+        <v>21.5</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
@@ -6717,29 +6717,29 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="B197" t="n">
-        <v>319</v>
+        <v>1405</v>
       </c>
       <c r="C197" t="n">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="D197" t="n">
-        <v>345</v>
+        <v>1424</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>牛</t>
+          <t>茄汁炒</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Beef</t>
+          <t>tomato sauce</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>17.6</v>
+        <v>19.2</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
@@ -6749,57 +6749,57 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="B198" t="n">
-        <v>349</v>
+        <v>1405</v>
       </c>
       <c r="C198" t="n">
-        <v>168</v>
+        <v>230</v>
       </c>
       <c r="D198" t="n">
-        <v>379</v>
+        <v>1423</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>茶牛</t>
+          <t>麵</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Tea beef</t>
+          <t>Noodles</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>6.6</v>
+        <v>20.9</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>left</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>165</v>
+        <v>732</v>
       </c>
       <c r="B199" t="n">
-        <v>379</v>
+        <v>1409</v>
       </c>
       <c r="C199" t="n">
-        <v>202</v>
+        <v>839</v>
       </c>
       <c r="D199" t="n">
-        <v>415</v>
+        <v>1428</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>牛</t>
+          <t>青菜蛋花湯</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beef </t>
+          <t>Green vegetable omelet soup</t>
         </is>
       </c>
       <c r="G199" t="n">
@@ -6813,29 +6813,29 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B200" t="n">
-        <v>685</v>
+        <v>1437</v>
       </c>
       <c r="C200" t="n">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D200" t="n">
-        <v>714</v>
+        <v>1455</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>豬</t>
+          <t>飯</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Pork</t>
+          <t>Fried rice</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>16.5</v>
+        <v>20.9</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
@@ -6845,29 +6845,29 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="B201" t="n">
-        <v>784</v>
+        <v>1438</v>
       </c>
       <c r="C201" t="n">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="D201" t="n">
-        <v>817</v>
+        <v>1455</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>豬</t>
+          <t>蛋炒</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Pork</t>
+          <t>Egg fried-</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>20.9</v>
+        <v>18.1</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
@@ -6877,29 +6877,29 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B202" t="n">
-        <v>914</v>
+        <v>1437</v>
       </c>
       <c r="C202" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D202" t="n">
-        <v>948</v>
+        <v>1454</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>豬</t>
+          <t>麵</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Pork</t>
+          <t>Stir-fry</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>20.9</v>
+        <v>19.8</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
@@ -6909,25 +6909,25 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="B203" t="n">
-        <v>1364</v>
+        <v>1468</v>
       </c>
       <c r="C203" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D203" t="n">
-        <v>1393</v>
+        <v>1488</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>飯</t>
+          <t>蔬菜湯麵</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Fried rice</t>
+          <t>Vegetable soup noodles</t>
         </is>
       </c>
       <c r="G203" t="n">
@@ -6941,29 +6941,29 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>158</v>
+        <v>527</v>
       </c>
       <c r="B204" t="n">
-        <v>1396</v>
+        <v>1500</v>
       </c>
       <c r="C204" t="n">
-        <v>202</v>
+        <v>979</v>
       </c>
       <c r="D204" t="n">
-        <v>1426</v>
+        <v>1537</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>飯</t>
+          <t>加飯或加麵 , 需加收 5元</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Fried rice</t>
+          <t>If you add rice or noodles, you have to pay extra 5 yuan</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>21.5</v>
+        <v>34.1</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
@@ -6973,29 +6973,29 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="B205" t="n">
-        <v>1333</v>
+        <v>1499</v>
       </c>
       <c r="C205" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="D205" t="n">
-        <v>1367</v>
+        <v>1519</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>炒飯</t>
+          <t>傻瓜乾麵</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Fried rice</t>
+          <t>Fool's Dried noodles</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>21.5</v>
+        <v>20.9</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
@@ -7005,29 +7005,29 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>135</v>
+        <v>742</v>
       </c>
       <c r="B206" t="n">
-        <v>1431</v>
+        <v>1550</v>
       </c>
       <c r="C206" t="n">
-        <v>179</v>
+        <v>977</v>
       </c>
       <c r="D206" t="n">
-        <v>1463</v>
+        <v>1585</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>飯</t>
+          <t>餐點可客製化</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Fried rice</t>
+          <t>Meals can be customized</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>20.9</v>
+        <v>35.8</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
@@ -7037,29 +7037,29 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>191</v>
+        <v>380</v>
       </c>
       <c r="B207" t="n">
-        <v>1433</v>
+        <v>1593</v>
       </c>
       <c r="C207" t="n">
-        <v>216</v>
+        <v>611</v>
       </c>
       <c r="D207" t="n">
-        <v>1457</v>
+        <v>1642</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>麵</t>
+          <t>外送專線</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Stir-fry</t>
+          <t>Special delivery line</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>19.8</v>
+        <v>52.8</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
